--- a/drinks_service/drinks_menu_with_sales.xlsx
+++ b/drinks_service/drinks_menu_with_sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25fc7af92590d36d/Education/IT Arkitektur KEA/Tværfagligt projekt/hotel-kong-arthur-api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45632eac75375503/Skrivebord/Kea-it-arkitektur/3. Semester/Tværfagligt/hotel-kong-arthur-api/drinks_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E6B63FC897D9AEDF086CA77A0D2C789B61B48EC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02838321-E39C-4D62-A83A-BC4F9A6FD28C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_E6B63FC897D9AEDF086CA77A0D2C789B61B48EC2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9ABD272-1125-42EA-A539-9669B364BBA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
-    <t>Drink Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Price (DKK)</t>
-  </si>
-  <si>
-    <t>Units Sold</t>
-  </si>
-  <si>
     <t>Margarita</t>
   </si>
   <si>
@@ -128,6 +116,18 @@
   </si>
   <si>
     <t>Coffee</t>
+  </si>
+  <si>
+    <t>drink_name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>units_sold</t>
   </si>
 </sst>
 </file>
@@ -510,24 +510,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>72.47</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>142.38</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>129.16999999999999</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>132.16999999999999</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>102.44</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>149.47999999999999</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>95.73</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>91.4</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>76.400000000000006</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>111.06</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>127.2</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>127.06</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>103.96</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>86.61</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>86.15</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>134.31</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>106.43</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>143.54</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>104.27</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>146.22999999999999</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>69.099999999999994</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>40.840000000000003</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>63.19</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>50.87</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>61.41</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>60.59</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>33.43</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
       </c>
       <c r="C29">
         <v>54.5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>34.79</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>63.6</v>
